--- a/7/2/2/1/2/2/Fondos de inversión del mercado monetario 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/2/1/2/2/Fondos de inversión del mercado monetario 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>Serie</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4622,6 +4625,59 @@
         <v>190</v>
       </c>
     </row>
+    <row r="76" spans="1:17">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76">
+        <v>26225</v>
+      </c>
+      <c r="C76">
+        <v>15278</v>
+      </c>
+      <c r="D76">
+        <v>105</v>
+      </c>
+      <c r="E76">
+        <v>15173</v>
+      </c>
+      <c r="F76">
+        <v>10865</v>
+      </c>
+      <c r="G76">
+        <v>7866</v>
+      </c>
+      <c r="H76">
+        <v>2999</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>82</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>26225</v>
+      </c>
+      <c r="O76">
+        <v>26038</v>
+      </c>
+      <c r="P76">
+        <v>26038</v>
+      </c>
+      <c r="Q76">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
